--- a/data/trans_orig/P42-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FEDA903-BACC-4018-A141-B54C8867110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9568A9-BBAA-4048-BD8E-2D243E1DDDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44AEA077-B464-4297-8785-490779551B1F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD94F13D-0930-45C8-AEF7-09890324FA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="187">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>43,57%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>56,43%</t>
   </si>
   <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>88,08%</t>
   </si>
   <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>93,17%</t>
   </si>
   <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,19 +149,19 @@
     <t>92,64%</t>
   </si>
   <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,19 +170,19 @@
     <t>86,15%</t>
   </si>
   <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -191,37 +191,37 @@
     <t>66,34%</t>
   </si>
   <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -233,61 +233,61 @@
     <t>58,47%</t>
   </si>
   <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>93,27%</t>
+    <t>93,15%</t>
   </si>
   <si>
     <t>96,76%</t>
@@ -299,61 +299,61 @@
     <t>3,24%</t>
   </si>
   <si>
-    <t>6,73%</t>
+    <t>6,85%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>78,06%</t>
   </si>
   <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2015 (Tasa respuesta: 50,43%)</t>
@@ -362,81 +362,78 @@
     <t>60,21%</t>
   </si>
   <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
   </si>
   <si>
     <t>39,79%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>90,89%</t>
-  </si>
-  <si>
     <t>95,59%</t>
   </si>
   <si>
@@ -446,43 +443,40 @@
     <t>4,41%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -1017,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A355B8-0CA3-4223-B17D-7561206860FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D42F4E-869B-4BCD-9DE5-E14CA749E4BD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2194,7 +2188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B348945-458A-4743-BC2D-0D073912784F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8312886D-97C1-4305-BB95-C049C9367765}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2924,7 +2918,7 @@
         <v>380</v>
       </c>
       <c r="I16" s="7">
-        <v>420341</v>
+        <v>420342</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2939,7 +2933,7 @@
         <v>380</v>
       </c>
       <c r="N16" s="7">
-        <v>420341</v>
+        <v>420342</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>87</v>
@@ -3022,7 +3016,7 @@
         <v>405</v>
       </c>
       <c r="I18" s="7">
-        <v>446757</v>
+        <v>446758</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3037,7 +3031,7 @@
         <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>446757</v>
+        <v>446758</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3371,7 +3365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77C0CD3-F453-495D-8FCA-98EDF740219C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE43299-C42F-4683-8ED6-B20D0E8B09FC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4107,10 +4101,10 @@
         <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>401</v>
@@ -4122,10 +4116,10 @@
         <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4147,13 @@
         <v>32166</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -4168,13 +4162,13 @@
         <v>32166</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4247,13 @@
         <v>635712</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>538</v>
@@ -4268,13 +4262,13 @@
         <v>635712</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4296,13 @@
         <v>136466</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -4317,13 +4311,13 @@
         <v>136466</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4396,13 @@
         <v>3066553</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>2882</v>
@@ -4417,13 +4411,13 @@
         <v>3066553</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4445,13 @@
         <v>450541</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>431</v>
@@ -4466,13 +4460,13 @@
         <v>450541</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,7 +4542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099387FE-8BB9-4FB4-B443-0FE1C3311DF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE7BC8D-5754-4FA0-A717-35B34066B588}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4565,7 +4559,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4685,13 +4679,13 @@
         <v>111222</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -4700,13 +4694,13 @@
         <v>111222</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4728,13 @@
         <v>185868</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -4749,13 +4743,13 @@
         <v>185868</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4828,13 @@
         <v>290957</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>263</v>
@@ -4849,13 +4843,13 @@
         <v>290957</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4877,13 @@
         <v>79509</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -4898,13 +4892,13 @@
         <v>79509</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4977,13 @@
         <v>361973</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>520</v>
@@ -4998,13 +4992,13 @@
         <v>361973</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5026,13 @@
         <v>39209</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -5047,13 +5041,13 @@
         <v>39209</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5126,13 @@
         <v>498900</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>750</v>
@@ -5147,13 +5141,13 @@
         <v>498900</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5175,13 @@
         <v>24980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -5196,13 +5190,13 @@
         <v>24980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5275,13 @@
         <v>409573</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>687</v>
@@ -5296,13 +5290,13 @@
         <v>409573</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5324,13 @@
         <v>29207</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -5345,13 +5339,13 @@
         <v>29207</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5424,13 @@
         <v>666080</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>1234</v>
@@ -5445,13 +5439,13 @@
         <v>666080</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5473,13 @@
         <v>207559</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -5494,13 +5488,13 @@
         <v>207559</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5573,13 @@
         <v>2338704</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>3520</v>
@@ -5594,13 +5588,13 @@
         <v>2338704</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5622,13 @@
         <v>566332</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M23" s="7">
         <v>508</v>
@@ -5643,13 +5637,13 @@
         <v>566332</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9568A9-BBAA-4048-BD8E-2D243E1DDDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C62E7A4-D2AC-4DDE-A52E-26520A29A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD94F13D-0930-45C8-AEF7-09890324FA8F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03D3DEF0-D419-47DE-B38C-BFEC50B2438A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="191">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>43,57%</t>
   </si>
   <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>56,43%</t>
   </si>
   <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>88,08%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>93,17%</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,19 +149,19 @@
     <t>92,64%</t>
   </si>
   <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,19 +170,19 @@
     <t>86,15%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -191,37 +191,37 @@
     <t>66,34%</t>
   </si>
   <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -233,97 +233,97 @@
     <t>58,47%</t>
   </si>
   <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>78,06%</t>
   </si>
   <si>
-    <t>74,83%</t>
+    <t>74,7%</t>
   </si>
   <si>
     <t>81,06%</t>
@@ -335,52 +335,52 @@
     <t>18,94%</t>
   </si>
   <si>
-    <t>25,17%</t>
+    <t>25,3%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>Población según si ha acudido alguna vez al ginecólogo en 2015 (Tasa respuesta: 50,43%)</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>Población según si ha acudido alguna vez al ginecólogo en 2016 (Tasa respuesta: 50,43%)</t>
   </si>
   <si>
     <t>60,21%</t>
   </si>
   <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>39,79%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>86,09%</t>
+    <t>86,42%</t>
   </si>
   <si>
     <t>91,4%</t>
@@ -392,91 +392,97 @@
     <t>8,6%</t>
   </si>
   <si>
-    <t>13,91%</t>
+    <t>13,58%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -485,121 +491,127 @@
     <t>37,44%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
   </si>
   <si>
     <t>78,54%</t>
   </si>
   <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
   <si>
     <t>21,46%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>96,59%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,41%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>93,34%</t>
   </si>
   <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D42F4E-869B-4BCD-9DE5-E14CA749E4BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDB16D3-372E-4B0C-BE6E-D3459A7EAC7F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2188,7 +2200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8312886D-97C1-4305-BB95-C049C9367765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BCF386-4D54-4114-9A38-921644183F24}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3365,7 +3377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE43299-C42F-4683-8ED6-B20D0E8B09FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01671A0F-49A7-44B2-8635-314730931FA5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4101,10 +4113,10 @@
         <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>401</v>
@@ -4116,10 +4128,10 @@
         <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4159,13 @@
         <v>32166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -4162,13 +4174,13 @@
         <v>32166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4259,13 @@
         <v>635712</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>538</v>
@@ -4262,13 +4274,13 @@
         <v>635712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4308,13 @@
         <v>136466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -4311,13 +4323,13 @@
         <v>136466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4408,13 @@
         <v>3066553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>2882</v>
@@ -4411,13 +4423,13 @@
         <v>3066553</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4457,13 @@
         <v>450541</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>431</v>
@@ -4460,13 +4472,13 @@
         <v>450541</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,7 +4554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE7BC8D-5754-4FA0-A717-35B34066B588}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02541F35-0E86-4759-94BC-9B510B39A396}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4559,7 +4571,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4679,13 +4691,13 @@
         <v>111222</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -4694,13 +4706,13 @@
         <v>111222</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4740,13 @@
         <v>185868</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -4743,13 +4755,13 @@
         <v>185868</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4840,13 @@
         <v>290957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>263</v>
@@ -4843,13 +4855,13 @@
         <v>290957</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4889,13 @@
         <v>79509</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -4892,13 +4904,13 @@
         <v>79509</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4989,13 @@
         <v>361973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>520</v>
@@ -4992,13 +5004,13 @@
         <v>361973</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5038,13 @@
         <v>39209</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -5041,13 +5053,13 @@
         <v>39209</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5138,13 @@
         <v>498900</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>750</v>
@@ -5141,13 +5153,13 @@
         <v>498900</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5187,13 @@
         <v>24980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -5190,13 +5202,13 @@
         <v>24980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5287,13 @@
         <v>409573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>687</v>
@@ -5290,13 +5302,13 @@
         <v>409573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5336,13 @@
         <v>29207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -5339,13 +5351,13 @@
         <v>29207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5436,13 @@
         <v>666080</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>1234</v>
@@ -5439,13 +5451,13 @@
         <v>666080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5485,13 @@
         <v>207559</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -5488,13 +5500,13 @@
         <v>207559</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5585,13 @@
         <v>2338704</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>3520</v>
@@ -5588,13 +5600,13 @@
         <v>2338704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5634,13 @@
         <v>566332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M23" s="7">
         <v>508</v>
@@ -5637,13 +5649,13 @@
         <v>566332</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C62E7A4-D2AC-4DDE-A52E-26520A29A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5640AAAD-5F59-4912-BFAF-92704C242BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03D3DEF0-D419-47DE-B38C-BFEC50B2438A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8E3AA80-9301-48A6-85B1-05F9B980694A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="189">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>43,57%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>56,43%</t>
   </si>
   <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>88,08%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>93,17%</t>
   </si>
   <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,19 +149,19 @@
     <t>92,64%</t>
   </si>
   <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,7 +170,7 @@
     <t>86,15%</t>
   </si>
   <si>
-    <t>82,6%</t>
+    <t>82,39%</t>
   </si>
   <si>
     <t>89,28%</t>
@@ -182,7 +182,7 @@
     <t>10,72%</t>
   </si>
   <si>
-    <t>17,4%</t>
+    <t>17,61%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -191,37 +191,37 @@
     <t>66,34%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -233,127 +233,127 @@
     <t>58,47%</t>
   </si>
   <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>78,06%</t>
   </si>
   <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2016 (Tasa respuesta: 50,43%)</t>
@@ -362,127 +362,127 @@
     <t>60,21%</t>
   </si>
   <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
   </si>
   <si>
     <t>39,79%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -491,127 +491,121 @@
     <t>37,44%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>78,54%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>21,46%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>96,59%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>3,41%</t>
   </si>
   <si>
     <t>93,34%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDB16D3-372E-4B0C-BE6E-D3459A7EAC7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB52663F-27FD-4384-92EC-FFA4AC001C28}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2200,7 +2194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BCF386-4D54-4114-9A38-921644183F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786A61F5-C364-4822-ABFB-A6C9559FD712}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2930,7 +2924,7 @@
         <v>380</v>
       </c>
       <c r="I16" s="7">
-        <v>420342</v>
+        <v>420341</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2945,7 +2939,7 @@
         <v>380</v>
       </c>
       <c r="N16" s="7">
-        <v>420342</v>
+        <v>420341</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>87</v>
@@ -3028,7 +3022,7 @@
         <v>405</v>
       </c>
       <c r="I18" s="7">
-        <v>446758</v>
+        <v>446757</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3043,7 +3037,7 @@
         <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>446758</v>
+        <v>446757</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3377,7 +3371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01671A0F-49A7-44B2-8635-314730931FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B9FDBC-9438-4045-A4B1-50A35C70F717}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4554,7 +4548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02541F35-0E86-4759-94BC-9B510B39A396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDEEF6A-DB9A-45A1-B157-EC6977B33C95}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5141,10 +5135,10 @@
         <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>750</v>
@@ -5156,10 +5150,10 @@
         <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5181,13 @@
         <v>24980</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -5202,13 +5196,13 @@
         <v>24980</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5281,13 @@
         <v>409573</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>687</v>
@@ -5302,13 +5296,13 @@
         <v>409573</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5330,13 @@
         <v>29207</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -5351,13 +5345,13 @@
         <v>29207</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5430,13 @@
         <v>666080</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>1234</v>
@@ -5451,13 +5445,13 @@
         <v>666080</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5479,13 @@
         <v>207559</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -5500,13 +5494,13 @@
         <v>207559</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5579,13 @@
         <v>2338704</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>3520</v>
@@ -5600,13 +5594,13 @@
         <v>2338704</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5628,13 @@
         <v>566332</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M23" s="7">
         <v>508</v>
@@ -5649,13 +5643,13 @@
         <v>566332</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5640AAAD-5F59-4912-BFAF-92704C242BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D725212A-B197-4FF1-B3E5-7D2086377A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8E3AA80-9301-48A6-85B1-05F9B980694A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C44AE1A6-50EE-4764-8A20-15556088018B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="214">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -101,7 +101,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>88,08%</t>
@@ -122,7 +122,7 @@
     <t>14,75%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>93,17%</t>
@@ -143,7 +143,7 @@
     <t>8,9%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>92,64%</t>
@@ -164,7 +164,7 @@
     <t>10,13%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>86,15%</t>
@@ -185,39 +185,54 @@
     <t>17,61%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
     <t>77,69%</t>
   </si>
   <si>
     <t>80,5%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
     <t>19,5%</t>
   </si>
   <si>
@@ -320,22 +335,40 @@
     <t>8,49%</t>
   </si>
   <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>87,17%</t>
@@ -449,22 +482,40 @@
     <t>9,11%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>87,19%</t>
@@ -488,124 +539,148 @@
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
   </si>
   <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1092,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB52663F-27FD-4384-92EC-FFA4AC001C28}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981BE10C-5F45-44F6-A0F6-F2E89EFB6609}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1200,7 +1275,7 @@
         <v>279</v>
       </c>
       <c r="I5" s="7">
-        <v>263305</v>
+        <v>263304</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1215,7 +1290,7 @@
         <v>279</v>
       </c>
       <c r="N5" s="7">
-        <v>263305</v>
+        <v>263304</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1249,7 +1324,7 @@
         <v>488</v>
       </c>
       <c r="I6" s="7">
-        <v>466634</v>
+        <v>466633</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1264,7 +1339,7 @@
         <v>488</v>
       </c>
       <c r="N6" s="7">
-        <v>466634</v>
+        <v>466633</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1893,10 +1968,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>439</v>
+        <v>277</v>
       </c>
       <c r="I19" s="7">
-        <v>442297</v>
+        <v>257031</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>49</v>
@@ -1908,10 +1983,10 @@
         <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>439</v>
+        <v>277</v>
       </c>
       <c r="N19" s="7">
-        <v>442297</v>
+        <v>257031</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>49</v>
@@ -1942,10 +2017,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="I20" s="7">
-        <v>224365</v>
+        <v>85004</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>52</v>
@@ -1957,10 +2032,10 @@
         <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="N20" s="7">
-        <v>224365</v>
+        <v>85004</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>52</v>
@@ -1991,10 +2066,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>653</v>
+        <v>370</v>
       </c>
       <c r="I21" s="7">
-        <v>666662</v>
+        <v>342035</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2006,10 +2081,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>653</v>
+        <v>370</v>
       </c>
       <c r="N21" s="7">
-        <v>666662</v>
+        <v>342035</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2023,7 +2098,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2042,34 +2117,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>2584</v>
+        <v>162</v>
       </c>
       <c r="I22" s="7">
-        <v>2661356</v>
+        <v>185265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="7">
+        <v>162</v>
+      </c>
+      <c r="N22" s="7">
+        <v>185265</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="7">
-        <v>2584</v>
-      </c>
-      <c r="N22" s="7">
-        <v>2661356</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,34 +2166,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>700</v>
+        <v>121</v>
       </c>
       <c r="I23" s="7">
-        <v>702743</v>
+        <v>139362</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="7">
+        <v>121</v>
+      </c>
+      <c r="N23" s="7">
+        <v>139362</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="7">
-        <v>700</v>
-      </c>
-      <c r="N23" s="7">
-        <v>702743</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,48 +2215,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>283</v>
+      </c>
+      <c r="I24" s="7">
+        <v>324627</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>283</v>
+      </c>
+      <c r="N24" s="7">
+        <v>324627</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2584</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2661356</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2584</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2661356</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>700</v>
+      </c>
+      <c r="I26" s="7">
+        <v>702743</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="7">
+        <v>700</v>
+      </c>
+      <c r="N26" s="7">
+        <v>702743</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3284</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3364099</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3284</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3364099</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2194,8 +2419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786A61F5-C364-4822-ABFB-A6C9559FD712}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB574EAE-FE7B-4DC5-937E-0017480EFB92}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2211,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2331,13 +2556,13 @@
         <v>250354</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>242</v>
@@ -2346,13 +2571,13 @@
         <v>250354</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2605,13 @@
         <v>177826</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M5" s="7">
         <v>177</v>
@@ -2395,13 +2620,13 @@
         <v>177826</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2705,13 @@
         <v>557326</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>522</v>
@@ -2495,13 +2720,13 @@
         <v>557326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2754,13 @@
         <v>46220</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -2544,13 +2769,13 @@
         <v>46220</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2854,13 @@
         <v>696007</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M10" s="7">
         <v>653</v>
@@ -2644,13 +2869,13 @@
         <v>696007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2903,13 @@
         <v>12860</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2693,13 +2918,13 @@
         <v>12860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +3003,13 @@
         <v>583993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>510</v>
@@ -2793,13 +3018,13 @@
         <v>583993</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +3052,13 @@
         <v>28997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -2842,13 +3067,13 @@
         <v>28997</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,31 +3149,31 @@
         <v>380</v>
       </c>
       <c r="I16" s="7">
-        <v>420341</v>
+        <v>420342</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>380</v>
       </c>
       <c r="N16" s="7">
-        <v>420341</v>
+        <v>420342</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +3201,13 @@
         <v>26416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -2991,13 +3216,13 @@
         <v>26416</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,7 +3247,7 @@
         <v>405</v>
       </c>
       <c r="I18" s="7">
-        <v>446757</v>
+        <v>446758</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3037,7 +3262,7 @@
         <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>446757</v>
+        <v>446758</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3070,34 +3295,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>540</v>
+        <v>287</v>
       </c>
       <c r="I19" s="7">
-        <v>575180</v>
+        <v>295821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
-        <v>540</v>
+        <v>287</v>
       </c>
       <c r="N19" s="7">
-        <v>575180</v>
+        <v>295821</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,34 +3344,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="I20" s="7">
-        <v>161673</v>
+        <v>55283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="N20" s="7">
-        <v>161673</v>
+        <v>55283</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,10 +3393,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>688</v>
+        <v>341</v>
       </c>
       <c r="I21" s="7">
-        <v>736853</v>
+        <v>351104</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3183,10 +3408,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>688</v>
+        <v>341</v>
       </c>
       <c r="N21" s="7">
-        <v>736853</v>
+        <v>351104</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3200,7 +3425,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3219,34 +3444,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>2847</v>
+        <v>253</v>
       </c>
       <c r="I22" s="7">
-        <v>3083200</v>
+        <v>279359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>2847</v>
+        <v>253</v>
       </c>
       <c r="N22" s="7">
-        <v>3083200</v>
+        <v>279359</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,34 +3493,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>431</v>
+        <v>94</v>
       </c>
       <c r="I23" s="7">
-        <v>453993</v>
+        <v>106390</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
-        <v>431</v>
+        <v>94</v>
       </c>
       <c r="N23" s="7">
-        <v>453993</v>
+        <v>106390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,48 +3542,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>347</v>
+      </c>
+      <c r="I24" s="7">
+        <v>385749</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>347</v>
+      </c>
+      <c r="N24" s="7">
+        <v>385749</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2847</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3083200</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2847</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3083200</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>431</v>
+      </c>
+      <c r="I26" s="7">
+        <v>453993</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="7">
+        <v>431</v>
+      </c>
+      <c r="N26" s="7">
+        <v>453993</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3278</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3537193</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3278</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3537193</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3371,8 +3746,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B9FDBC-9438-4045-A4B1-50A35C70F717}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B9D08A-84C1-4315-8505-0DA7F364B19B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3388,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3508,13 +3883,13 @@
         <v>235063</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>236</v>
@@ -3523,13 +3898,13 @@
         <v>235063</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3932,13 @@
         <v>155361</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
@@ -3572,13 +3947,13 @@
         <v>155361</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +4032,13 @@
         <v>499170</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>513</v>
@@ -3672,13 +4047,13 @@
         <v>499170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +4081,13 @@
         <v>60854</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>63</v>
@@ -3721,13 +4096,13 @@
         <v>60854</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +4181,13 @@
         <v>621719</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>625</v>
@@ -3821,13 +4196,13 @@
         <v>621719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +4230,13 @@
         <v>35312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -3870,13 +4245,13 @@
         <v>35312</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +4330,13 @@
         <v>613499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>569</v>
@@ -3970,13 +4345,13 @@
         <v>613499</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4379,13 @@
         <v>30381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -4019,13 +4394,13 @@
         <v>30381</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4479,13 @@
         <v>461391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>401</v>
@@ -4119,13 +4494,13 @@
         <v>461391</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4528,13 @@
         <v>32166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -4168,13 +4543,13 @@
         <v>32166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,34 +4622,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>538</v>
+        <v>309</v>
       </c>
       <c r="I19" s="7">
-        <v>635712</v>
+        <v>328777</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M19" s="7">
-        <v>538</v>
+        <v>309</v>
       </c>
       <c r="N19" s="7">
-        <v>635712</v>
+        <v>328777</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,34 +4671,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="I20" s="7">
-        <v>136466</v>
+        <v>46796</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M20" s="7">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="N20" s="7">
-        <v>136466</v>
+        <v>46796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,10 +4720,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>650</v>
+        <v>352</v>
       </c>
       <c r="I21" s="7">
-        <v>772178</v>
+        <v>375573</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4360,10 +4735,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>650</v>
+        <v>352</v>
       </c>
       <c r="N21" s="7">
-        <v>772178</v>
+        <v>375573</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4377,7 +4752,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4396,34 +4771,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>2882</v>
+        <v>229</v>
       </c>
       <c r="I22" s="7">
-        <v>3066553</v>
+        <v>306934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>2882</v>
+        <v>229</v>
       </c>
       <c r="N22" s="7">
-        <v>3066553</v>
+        <v>306934</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,34 +4820,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>431</v>
+        <v>69</v>
       </c>
       <c r="I23" s="7">
-        <v>450541</v>
+        <v>89670</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
-        <v>431</v>
+        <v>69</v>
       </c>
       <c r="N23" s="7">
-        <v>450541</v>
+        <v>89670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,48 +4869,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>298</v>
+      </c>
+      <c r="I24" s="7">
+        <v>396604</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>298</v>
+      </c>
+      <c r="N24" s="7">
+        <v>396604</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2882</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3066554</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2882</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3066554</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>431</v>
+      </c>
+      <c r="I26" s="7">
+        <v>450541</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="7">
+        <v>431</v>
+      </c>
+      <c r="N26" s="7">
+        <v>450541</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3313</v>
       </c>
-      <c r="I24" s="7">
-        <v>3517094</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3517095</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3313</v>
       </c>
-      <c r="N24" s="7">
-        <v>3517094</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>3517095</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4548,8 +5073,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDEEF6A-DB9A-45A1-B157-EC6977B33C95}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5AC9D4-8757-414F-93AC-DCBABDB23CE2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4565,7 +5090,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4682,31 +5207,31 @@
         <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>111222</v>
+        <v>99543</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
       </c>
       <c r="N4" s="7">
-        <v>111222</v>
+        <v>99543</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,31 +5256,31 @@
         <v>108</v>
       </c>
       <c r="I5" s="7">
-        <v>185868</v>
+        <v>160770</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
       </c>
       <c r="N5" s="7">
-        <v>185868</v>
+        <v>160770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,7 +5305,7 @@
         <v>174</v>
       </c>
       <c r="I6" s="7">
-        <v>297090</v>
+        <v>260313</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4795,7 +5320,7 @@
         <v>174</v>
       </c>
       <c r="N6" s="7">
-        <v>297090</v>
+        <v>260313</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4831,31 +5356,31 @@
         <v>263</v>
       </c>
       <c r="I7" s="7">
-        <v>290957</v>
+        <v>324080</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>263</v>
       </c>
       <c r="N7" s="7">
-        <v>290957</v>
+        <v>324080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,31 +5405,31 @@
         <v>72</v>
       </c>
       <c r="I8" s="7">
-        <v>79509</v>
+        <v>69356</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>79509</v>
+        <v>69356</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +5454,7 @@
         <v>335</v>
       </c>
       <c r="I9" s="7">
-        <v>370466</v>
+        <v>393436</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4944,7 +5469,7 @@
         <v>335</v>
       </c>
       <c r="N9" s="7">
-        <v>370466</v>
+        <v>393436</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4980,31 +5505,31 @@
         <v>520</v>
       </c>
       <c r="I10" s="7">
-        <v>361973</v>
+        <v>335665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>520</v>
       </c>
       <c r="N10" s="7">
-        <v>361973</v>
+        <v>335665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,31 +5554,31 @@
         <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>39209</v>
+        <v>35238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>39209</v>
+        <v>35238</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5603,7 @@
         <v>577</v>
       </c>
       <c r="I12" s="7">
-        <v>401182</v>
+        <v>370903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5093,7 +5618,7 @@
         <v>577</v>
       </c>
       <c r="N12" s="7">
-        <v>401182</v>
+        <v>370903</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5129,31 +5654,31 @@
         <v>750</v>
       </c>
       <c r="I13" s="7">
-        <v>498900</v>
+        <v>483122</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>750</v>
       </c>
       <c r="N13" s="7">
-        <v>498900</v>
+        <v>483122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,31 +5703,31 @@
         <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>24980</v>
+        <v>22347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
       </c>
       <c r="N14" s="7">
-        <v>24980</v>
+        <v>22347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5752,7 @@
         <v>789</v>
       </c>
       <c r="I15" s="7">
-        <v>523880</v>
+        <v>505469</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5242,7 +5767,7 @@
         <v>789</v>
       </c>
       <c r="N15" s="7">
-        <v>523880</v>
+        <v>505469</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5278,31 +5803,31 @@
         <v>687</v>
       </c>
       <c r="I16" s="7">
-        <v>409573</v>
+        <v>375423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>687</v>
       </c>
       <c r="N16" s="7">
-        <v>409573</v>
+        <v>375423</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,31 +5852,31 @@
         <v>50</v>
       </c>
       <c r="I17" s="7">
-        <v>29207</v>
+        <v>26357</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
       </c>
       <c r="N17" s="7">
-        <v>29207</v>
+        <v>26357</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,7 +5901,7 @@
         <v>737</v>
       </c>
       <c r="I18" s="7">
-        <v>438780</v>
+        <v>401780</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5391,7 +5916,7 @@
         <v>737</v>
       </c>
       <c r="N18" s="7">
-        <v>438780</v>
+        <v>401780</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5424,34 +5949,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>1234</v>
+        <v>607</v>
       </c>
       <c r="I19" s="7">
-        <v>666080</v>
+        <v>298114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M19" s="7">
-        <v>1234</v>
+        <v>607</v>
       </c>
       <c r="N19" s="7">
-        <v>666080</v>
+        <v>298114</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,34 +5998,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="I20" s="7">
-        <v>207559</v>
+        <v>229115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="N20" s="7">
-        <v>207559</v>
+        <v>229115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,10 +6047,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>1416</v>
+        <v>657</v>
       </c>
       <c r="I21" s="7">
-        <v>873639</v>
+        <v>527229</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5537,10 +6062,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1416</v>
+        <v>657</v>
       </c>
       <c r="N21" s="7">
-        <v>873639</v>
+        <v>527229</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5554,7 +6079,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5573,34 +6098,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>3520</v>
+        <v>627</v>
       </c>
       <c r="I22" s="7">
-        <v>2338704</v>
+        <v>304168</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M22" s="7">
-        <v>3520</v>
+        <v>627</v>
       </c>
       <c r="N22" s="7">
-        <v>2338704</v>
+        <v>304168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,34 +6147,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>508</v>
+        <v>132</v>
       </c>
       <c r="I23" s="7">
-        <v>566332</v>
+        <v>63000</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M23" s="7">
-        <v>508</v>
+        <v>132</v>
       </c>
       <c r="N23" s="7">
-        <v>566332</v>
+        <v>63000</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,48 +6196,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>759</v>
+      </c>
+      <c r="I24" s="7">
+        <v>367168</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>759</v>
+      </c>
+      <c r="N24" s="7">
+        <v>367168</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3520</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2220114</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3520</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2220114</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>508</v>
+      </c>
+      <c r="I26" s="7">
+        <v>606184</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="7">
+        <v>508</v>
+      </c>
+      <c r="N26" s="7">
+        <v>606184</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>4028</v>
       </c>
-      <c r="I24" s="7">
-        <v>2905036</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2826298</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>4028</v>
       </c>
-      <c r="N24" s="7">
-        <v>2905036</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>2826298</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
